--- a/ig/ch-lab-order/StructureDefinition-ch-lab-order-composition-with-sr-and-form.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-order-composition-with-sr-and-form.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -720,7 +720,7 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.typeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.typeCode</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -753,7 +753,7 @@
     <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.classCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.classCode</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1162,7 +1162,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1425,7 +1425,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1872,7 +1872,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="55108-5"/&gt;
-    &lt;display value="Clinical presentation Document"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2247,15 +2246,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="54.26953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2266,27 +2265,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-order/StructureDefinition-ch-lab-order-composition-with-sr-and-form.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-order-composition-with-sr-and-form.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2019-01-30</t>
+    <t>2025-12-16T11:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Definition for Composition resource in the context of CH LAB-Order with ServiceReauest and Form, parent is ChOrfComposition</t>
+    <t>Definition of the Composition resource using ServiceRequest and Form.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -379,7 +379,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -477,7 +477,7 @@
     <t>The person/organization who has typed/filled in the form content</t>
   </si>
   <si>
-    <t>Extension to define the information about the person and organization that entered data and the time of the data input</t>
+    <t>Extension to define the information about the person and organization that entered data and the time of the data input. This extension has its origin from CDA and is deprecated.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -865,7 +865,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1403,7 +1403,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1486,7 +1486,7 @@
     <t>Classification of a section of a composition/document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes|4.0.1</t>
   </si>
   <si>
     <t>Composition.section.author</t>
@@ -1578,7 +1578,7 @@
     <t>What order applies to the items in the entry.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
@@ -1624,7 +1624,7 @@
     <t>If a section is empty, why it is empty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
@@ -2996,7 +2996,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>144</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>160</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>164</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>169</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>173</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>178</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>183</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>205</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>218</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>230</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>239</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>305</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>321</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>524</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>530</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>532</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>536</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>542</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>549</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>557</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>562</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>566</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>571</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>575</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>580</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>586</v>
       </c>
@@ -17982,7 +17982,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>592</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
         <v>594</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>598</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>602</v>
       </c>
@@ -19164,12 +19164,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO144">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
